--- a/data/Contact_Recreation/KaikokopuStreamatHimatangiBeach_ca0d1620e2.xlsx
+++ b/data/Contact_Recreation/KaikokopuStreamatHimatangiBeach_ca0d1620e2.xlsx
@@ -492,7 +492,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C2" s="2" t="n">
@@ -532,7 +532,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C3" s="2" t="n">
@@ -572,7 +572,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C4" s="2" t="n">
@@ -612,7 +612,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C5" s="2" t="n">
@@ -652,7 +652,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C6" s="2" t="n">
@@ -692,7 +692,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C7" s="2" t="n">
@@ -732,7 +732,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C8" s="2" t="n">
@@ -772,7 +772,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C9" s="2" t="n">
@@ -812,7 +812,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C10" s="2" t="n">
@@ -852,7 +852,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C11" s="2" t="n">
@@ -892,7 +892,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C12" s="2" t="n">
@@ -932,7 +932,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C13" s="2" t="n">
@@ -972,7 +972,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C14" s="2" t="n">
@@ -1012,7 +1012,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C15" s="2" t="n">
@@ -1052,7 +1052,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C16" s="2" t="n">
@@ -1092,7 +1092,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C17" s="2" t="n">
@@ -1132,7 +1132,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C18" s="2" t="n">
@@ -1172,7 +1172,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C19" s="2" t="n">
@@ -1212,7 +1212,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C20" s="2" t="n">
@@ -1252,7 +1252,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C21" s="2" t="n">
@@ -1292,7 +1292,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C22" s="2" t="n">
@@ -1332,7 +1332,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C23" s="2" t="n">
@@ -1372,7 +1372,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C24" s="2" t="n">
@@ -1412,7 +1412,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C25" s="2" t="n">
@@ -1452,7 +1452,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C26" s="2" t="n">
@@ -1492,7 +1492,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C27" s="2" t="n">
@@ -1532,7 +1532,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C28" s="2" t="n">
@@ -1572,7 +1572,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C29" s="2" t="n">
@@ -1612,7 +1612,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C30" s="2" t="n">
@@ -1652,7 +1652,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C31" s="2" t="n">
@@ -1692,7 +1692,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C32" s="2" t="n">
@@ -1732,7 +1732,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C33" s="2" t="n">
@@ -1772,7 +1772,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C34" s="2" t="n">
@@ -1812,7 +1812,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C35" s="2" t="n">
@@ -1852,7 +1852,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C36" s="2" t="n">
@@ -1892,7 +1892,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C37" s="2" t="n">
@@ -1932,7 +1932,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C38" s="2" t="n">
@@ -1972,7 +1972,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C39" s="2" t="n">
@@ -2012,7 +2012,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C40" s="2" t="n">
@@ -2052,7 +2052,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C41" s="2" t="n">
@@ -2092,7 +2092,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C42" s="2" t="n">
@@ -2132,7 +2132,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C43" s="2" t="n">
@@ -2172,7 +2172,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C44" s="2" t="n">
@@ -2212,7 +2212,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C45" s="2" t="n">
@@ -2252,7 +2252,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C46" s="2" t="n">
@@ -2292,7 +2292,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C47" s="2" t="n">
@@ -2332,7 +2332,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C48" s="2" t="n">
@@ -2372,7 +2372,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C49" s="2" t="n">
@@ -2412,7 +2412,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C50" s="2" t="n">
@@ -2452,7 +2452,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C51" s="2" t="n">
@@ -2492,7 +2492,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C52" s="2" t="n">
@@ -2532,7 +2532,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C53" s="2" t="n">
@@ -2572,7 +2572,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C54" s="2" t="n">
@@ -2612,7 +2612,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C55" s="2" t="n">
@@ -2652,7 +2652,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C56" s="2" t="n">
@@ -2692,7 +2692,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C57" s="2" t="n">
@@ -2732,7 +2732,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C58" s="2" t="n">
@@ -2772,7 +2772,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C59" s="2" t="n">
@@ -2812,7 +2812,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C60" s="2" t="n">
@@ -2852,7 +2852,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C61" s="2" t="n">
@@ -2892,7 +2892,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C62" s="2" t="n">
@@ -2932,7 +2932,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C63" s="2" t="n">
@@ -2972,7 +2972,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C64" s="2" t="n">
@@ -3012,7 +3012,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C65" s="2" t="n">
@@ -3052,7 +3052,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C66" s="2" t="n">
@@ -3092,7 +3092,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C67" s="2" t="n">
@@ -3132,7 +3132,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C68" s="2" t="n">
@@ -3172,7 +3172,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C69" s="2" t="n">
@@ -3212,7 +3212,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C70" s="2" t="n">
@@ -3252,7 +3252,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C71" s="2" t="n">
@@ -3292,7 +3292,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C72" s="2" t="n">
@@ -3332,7 +3332,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C73" s="2" t="n">
@@ -3372,7 +3372,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C74" s="2" t="n">
@@ -3412,7 +3412,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C75" s="2" t="n">
@@ -3452,7 +3452,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C76" s="2" t="n">
@@ -3492,7 +3492,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C77" s="2" t="n">
@@ -3532,7 +3532,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C78" s="2" t="n">
@@ -3572,7 +3572,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C79" s="2" t="n">
@@ -3612,7 +3612,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C80" s="2" t="n">
@@ -3652,7 +3652,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C81" s="2" t="n">
@@ -3692,7 +3692,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C82" s="2" t="n">
@@ -3732,7 +3732,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C83" s="2" t="n">
@@ -3772,7 +3772,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C84" s="2" t="n">
@@ -3812,7 +3812,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C85" s="2" t="n">
@@ -3852,7 +3852,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C86" s="2" t="n">
@@ -3892,7 +3892,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C87" s="2" t="n">
@@ -3932,7 +3932,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C88" s="2" t="n">
@@ -3972,7 +3972,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C89" s="2" t="n">
@@ -4012,7 +4012,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C90" s="2" t="n">
@@ -4052,7 +4052,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C91" s="2" t="n">
@@ -4092,7 +4092,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C92" s="2" t="n">
@@ -4132,7 +4132,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C93" s="2" t="n">
@@ -4172,7 +4172,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C94" s="2" t="n">
@@ -4212,7 +4212,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C95" s="2" t="n">
@@ -4252,7 +4252,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C96" s="2" t="n">
@@ -4292,7 +4292,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C97" s="2" t="n">
@@ -4332,7 +4332,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C98" s="2" t="n">
@@ -4372,7 +4372,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C99" s="2" t="n">
@@ -4412,7 +4412,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C100" s="2" t="n">
@@ -4452,7 +4452,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C101" s="2" t="n">
@@ -4492,7 +4492,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C102" s="2" t="n">
@@ -4532,7 +4532,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C103" s="2" t="n">
@@ -4572,7 +4572,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C104" s="2" t="n">
@@ -4612,7 +4612,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C105" s="2" t="n">
@@ -4652,7 +4652,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C106" s="2" t="n">
@@ -4692,7 +4692,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C107" s="2" t="n">
@@ -4732,7 +4732,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C108" s="2" t="n">
@@ -4772,7 +4772,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C109" s="2" t="n">
@@ -4812,7 +4812,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C110" s="2" t="n">
@@ -4852,7 +4852,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C111" s="2" t="n">
@@ -4892,7 +4892,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C112" s="2" t="n">
@@ -4932,7 +4932,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C113" s="2" t="n">
@@ -4972,7 +4972,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C114" s="2" t="n">
@@ -5012,7 +5012,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C115" s="2" t="n">
@@ -5052,7 +5052,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C116" s="2" t="n">
@@ -5092,7 +5092,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C117" s="2" t="n">
@@ -5132,7 +5132,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C118" s="2" t="n">
@@ -5172,7 +5172,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C119" s="2" t="n">
@@ -5212,7 +5212,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C120" s="2" t="n">
@@ -5252,7 +5252,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C121" s="2" t="n">
@@ -5292,7 +5292,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C122" s="2" t="n">
@@ -5332,7 +5332,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C123" s="2" t="n">
@@ -5372,7 +5372,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C124" s="2" t="n">
@@ -5412,7 +5412,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C125" s="2" t="n">
@@ -5452,7 +5452,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C126" s="2" t="n">
@@ -5492,7 +5492,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C127" s="2" t="n">
@@ -5532,7 +5532,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C128" s="2" t="n">
@@ -5572,7 +5572,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C129" s="2" t="n">
@@ -5612,7 +5612,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C130" s="2" t="n">
@@ -5652,7 +5652,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C131" s="2" t="n">
@@ -5692,7 +5692,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C132" s="2" t="n">
@@ -5732,7 +5732,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C133" s="2" t="n">
@@ -5772,7 +5772,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C134" s="2" t="n">
@@ -5812,7 +5812,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C135" s="2" t="n">
@@ -5852,7 +5852,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C136" s="2" t="n">
@@ -5892,7 +5892,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C137" s="2" t="n">
@@ -5932,7 +5932,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C138" s="2" t="n">
@@ -5972,7 +5972,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C139" s="2" t="n">
@@ -6011,7 +6011,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C140" s="2" t="n">
@@ -6050,7 +6050,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C141" s="2" t="n">
@@ -6089,7 +6089,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C142" s="2" t="n">
@@ -6128,7 +6128,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C143" s="2" t="n">
@@ -6167,7 +6167,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C144" s="2" t="n">
@@ -6206,7 +6206,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C145" s="2" t="n">
@@ -6245,7 +6245,7 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C146" s="2" t="n">
@@ -6284,7 +6284,7 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C147" s="2" t="n">
@@ -6323,7 +6323,7 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C148" s="2" t="n">
@@ -6362,7 +6362,7 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C149" s="2" t="n">
@@ -6401,7 +6401,7 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C150" s="2" t="n">
@@ -6440,7 +6440,7 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C151" s="2" t="n">
@@ -6479,7 +6479,7 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C152" s="2" t="n">
@@ -6518,7 +6518,7 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C153" s="2" t="n">
@@ -6557,7 +6557,7 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C154" s="2" t="n">
@@ -6596,7 +6596,7 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C155" s="2" t="n">
@@ -6635,7 +6635,7 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C156" s="2" t="n">
@@ -6674,7 +6674,7 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C157" s="2" t="n">
@@ -6713,7 +6713,7 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C158" s="2" t="n">
@@ -6752,7 +6752,7 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C159" s="2" t="n">
@@ -6791,7 +6791,7 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C160" s="2" t="n">
@@ -6830,7 +6830,7 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C161" s="2" t="n">
@@ -6869,7 +6869,7 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C162" s="2" t="n">
@@ -6908,7 +6908,7 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C163" s="2" t="n">
@@ -6947,7 +6947,7 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C164" s="2" t="n">
@@ -6986,7 +6986,7 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C165" s="2" t="n">
@@ -7025,7 +7025,7 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C166" s="2" t="n">
@@ -7064,7 +7064,7 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C167" s="2" t="n">
@@ -7103,7 +7103,7 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C168" s="2" t="n">
@@ -7142,7 +7142,7 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C169" s="2" t="n">
@@ -7181,7 +7181,7 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C170" s="2" t="n">
@@ -7220,7 +7220,7 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C171" s="2" t="n">
@@ -7259,7 +7259,7 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C172" s="2" t="n">
@@ -7298,7 +7298,7 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C173" s="2" t="n">
@@ -7337,7 +7337,7 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C174" s="2" t="n">
@@ -7376,7 +7376,7 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C175" s="2" t="n">
@@ -7415,7 +7415,7 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C176" s="2" t="n">
@@ -7454,7 +7454,7 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C177" s="2" t="n">
@@ -7493,7 +7493,7 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C178" s="2" t="n">
@@ -7532,7 +7532,7 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C179" s="2" t="n">
@@ -7571,7 +7571,7 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C180" s="2" t="n">
@@ -7610,7 +7610,7 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C181" s="2" t="n">
@@ -7649,7 +7649,7 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C182" s="2" t="n">
@@ -7688,7 +7688,7 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C183" s="2" t="n">
@@ -7727,7 +7727,7 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C184" s="2" t="n">
@@ -7766,7 +7766,7 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C185" s="2" t="n">
@@ -7805,7 +7805,7 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C186" s="2" t="n">
@@ -7844,7 +7844,7 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C187" s="2" t="n">
@@ -7883,7 +7883,7 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C188" s="2" t="n">
@@ -7922,7 +7922,7 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C189" s="2" t="n">
@@ -7961,7 +7961,7 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C190" s="2" t="n">
@@ -8000,7 +8000,7 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C191" s="2" t="n">
@@ -8039,7 +8039,7 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C192" s="2" t="n">
@@ -8078,7 +8078,7 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C193" s="2" t="n">
@@ -8117,7 +8117,7 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C194" s="2" t="n">
@@ -8156,7 +8156,7 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C195" s="2" t="n">
@@ -8195,7 +8195,7 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C196" s="2" t="n">
@@ -8234,7 +8234,7 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C197" s="2" t="n">
@@ -8273,7 +8273,7 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C198" s="2" t="n">
@@ -8312,7 +8312,7 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C199" s="2" t="n">
@@ -8351,7 +8351,7 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C200" s="2" t="n">
@@ -8390,7 +8390,7 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C201" s="2" t="n">
@@ -8429,7 +8429,7 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C202" s="2" t="n">
@@ -8468,7 +8468,7 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C203" s="2" t="n">
@@ -8507,7 +8507,7 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C204" s="2" t="n">
@@ -8546,7 +8546,7 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C205" s="2" t="n">
@@ -8585,7 +8585,7 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C206" s="2" t="n">
@@ -8624,7 +8624,7 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C207" s="2" t="n">
@@ -8663,7 +8663,7 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C208" s="2" t="n">
@@ -8702,7 +8702,7 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C209" s="2" t="n">
@@ -8741,7 +8741,7 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C210" s="2" t="n">
@@ -8780,7 +8780,7 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C211" s="2" t="n">
@@ -8819,7 +8819,7 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C212" s="2" t="n">
@@ -8858,7 +8858,7 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C213" s="2" t="n">
@@ -8897,7 +8897,7 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C214" s="2" t="n">
@@ -8936,7 +8936,7 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C215" s="2" t="n">
@@ -8975,7 +8975,7 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C216" s="2" t="n">
@@ -9014,7 +9014,7 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C217" s="2" t="n">
@@ -9053,7 +9053,7 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C218" s="2" t="n">
@@ -9092,7 +9092,7 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C219" s="2" t="n">
@@ -9131,7 +9131,7 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C220" s="2" t="n">
@@ -9170,7 +9170,7 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C221" s="2" t="n">
@@ -9209,7 +9209,7 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C222" s="2" t="n">
@@ -9248,7 +9248,7 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C223" s="2" t="n">
@@ -9287,7 +9287,7 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C224" s="2" t="n">
@@ -9326,7 +9326,7 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C225" s="2" t="n">
@@ -9365,7 +9365,7 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C226" s="2" t="n">
@@ -9404,7 +9404,7 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C227" s="2" t="n">
@@ -9443,7 +9443,7 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C228" s="2" t="n">
@@ -9482,7 +9482,7 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C229" s="2" t="n">
@@ -9521,7 +9521,7 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C230" s="2" t="n">
@@ -9560,7 +9560,7 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C231" s="2" t="n">
@@ -9599,7 +9599,7 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C232" s="2" t="n">
@@ -9638,7 +9638,7 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C233" s="2" t="n">
@@ -9677,7 +9677,7 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C234" s="2" t="n">
@@ -9716,7 +9716,7 @@
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C235" s="2" t="n">
@@ -9755,7 +9755,7 @@
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C236" s="2" t="n">
@@ -9794,7 +9794,7 @@
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C237" s="2" t="n">
@@ -9833,7 +9833,7 @@
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C238" s="2" t="n">
@@ -9872,7 +9872,7 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C239" s="2" t="n">
@@ -9911,7 +9911,7 @@
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C240" s="2" t="n">
@@ -9950,7 +9950,7 @@
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C241" s="2" t="n">
@@ -9989,7 +9989,7 @@
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C242" s="2" t="n">
@@ -10028,7 +10028,7 @@
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C243" s="2" t="n">
@@ -10067,7 +10067,7 @@
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C244" s="2" t="n">
@@ -10106,7 +10106,7 @@
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C245" s="2" t="n">
@@ -10145,7 +10145,7 @@
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C246" s="2" t="n">
@@ -10184,7 +10184,7 @@
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C247" s="2" t="n">
@@ -10223,7 +10223,7 @@
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C248" s="2" t="n">
@@ -10262,7 +10262,7 @@
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C249" s="2" t="n">
@@ -10301,7 +10301,7 @@
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C250" s="2" t="n">
@@ -10340,7 +10340,7 @@
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C251" s="2" t="n">
@@ -10379,7 +10379,7 @@
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C252" s="2" t="n">
@@ -10418,7 +10418,7 @@
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C253" s="2" t="n">
@@ -10457,7 +10457,7 @@
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C254" s="2" t="n">
@@ -10496,7 +10496,7 @@
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C255" s="2" t="n">
@@ -10535,7 +10535,7 @@
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C256" s="2" t="n">
@@ -10574,7 +10574,7 @@
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C257" s="2" t="n">
@@ -10613,7 +10613,7 @@
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C258" s="2" t="n">
@@ -10652,7 +10652,7 @@
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C259" s="2" t="n">
@@ -10691,7 +10691,7 @@
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C260" s="2" t="n">
@@ -10730,7 +10730,7 @@
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C261" s="2" t="n">
@@ -10769,7 +10769,7 @@
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C262" s="2" t="n">
@@ -10808,7 +10808,7 @@
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C263" s="2" t="n">
@@ -10847,7 +10847,7 @@
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C264" s="2" t="n">
@@ -10886,7 +10886,7 @@
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C265" s="2" t="n">
@@ -10925,7 +10925,7 @@
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C266" s="2" t="n">
@@ -10964,7 +10964,7 @@
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C267" s="2" t="n">
@@ -11003,7 +11003,7 @@
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C268" s="2" t="n">
@@ -11042,7 +11042,7 @@
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C269" s="2" t="n">
@@ -11081,7 +11081,7 @@
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C270" s="2" t="n">
@@ -11120,7 +11120,7 @@
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C271" s="2" t="n">
@@ -11159,7 +11159,7 @@
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C272" s="2" t="n">
@@ -11198,7 +11198,7 @@
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C273" s="2" t="n">
@@ -11237,7 +11237,7 @@
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C274" s="2" t="n">
@@ -11276,7 +11276,7 @@
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C275" s="2" t="n">
@@ -11315,7 +11315,7 @@
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C276" s="2" t="n">
@@ -11354,7 +11354,7 @@
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C277" s="2" t="n">
@@ -11393,7 +11393,7 @@
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C278" s="2" t="n">
@@ -11432,7 +11432,7 @@
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C279" s="2" t="n">
@@ -11471,7 +11471,7 @@
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C280" s="2" t="n">
@@ -11510,7 +11510,7 @@
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C281" s="2" t="n">
@@ -11549,7 +11549,7 @@
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C282" s="2" t="n">
@@ -11588,7 +11588,7 @@
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C283" s="2" t="n">
@@ -11627,7 +11627,7 @@
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C284" s="2" t="n">
@@ -11666,7 +11666,7 @@
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C285" s="2" t="n">
@@ -11705,7 +11705,7 @@
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C286" s="2" t="n">
@@ -11744,7 +11744,7 @@
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C287" s="2" t="n">
@@ -11783,7 +11783,7 @@
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C288" s="2" t="n">
@@ -11822,7 +11822,7 @@
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C289" s="2" t="n">
@@ -11861,7 +11861,7 @@
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C290" s="2" t="n">
@@ -11900,7 +11900,7 @@
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C291" s="2" t="n">
@@ -11939,7 +11939,7 @@
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C292" s="2" t="n">
@@ -11978,7 +11978,7 @@
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C293" s="2" t="n">
@@ -12017,7 +12017,7 @@
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C294" s="2" t="n">
@@ -12056,7 +12056,7 @@
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C295" s="2" t="n">
@@ -12095,7 +12095,7 @@
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C296" s="2" t="n">
@@ -12134,7 +12134,7 @@
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C297" s="2" t="n">
@@ -12173,7 +12173,7 @@
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C298" s="2" t="n">
@@ -12212,7 +12212,7 @@
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C299" s="2" t="n">
@@ -12251,7 +12251,7 @@
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C300" s="2" t="n">
@@ -12290,7 +12290,7 @@
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C301" s="2" t="n">
@@ -12329,7 +12329,7 @@
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C302" s="2" t="n">
@@ -12368,7 +12368,7 @@
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C303" s="2" t="n">
@@ -12407,7 +12407,7 @@
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C304" s="2" t="n">
@@ -12446,7 +12446,7 @@
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C305" s="2" t="n">
@@ -12485,7 +12485,7 @@
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C306" s="2" t="n">
@@ -12524,7 +12524,7 @@
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C307" s="2" t="n">
@@ -12563,7 +12563,7 @@
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C308" s="2" t="n">
@@ -12602,7 +12602,7 @@
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C309" s="2" t="n">
@@ -12641,7 +12641,7 @@
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C310" s="2" t="n">
@@ -12680,7 +12680,7 @@
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C311" s="2" t="n">
@@ -12719,7 +12719,7 @@
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C312" s="2" t="n">
@@ -12758,7 +12758,7 @@
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C313" s="2" t="n">
@@ -12797,7 +12797,7 @@
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C314" s="2" t="n">
@@ -12836,7 +12836,7 @@
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C315" s="2" t="n">
@@ -12875,7 +12875,7 @@
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C316" s="2" t="n">
@@ -12914,7 +12914,7 @@
       </c>
       <c r="B317" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C317" s="2" t="n">
@@ -12953,7 +12953,7 @@
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C318" s="2" t="n">
@@ -12992,7 +12992,7 @@
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C319" s="2" t="n">
@@ -13031,7 +13031,7 @@
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C320" s="2" t="n">
@@ -13070,7 +13070,7 @@
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C321" s="2" t="n">
@@ -13109,7 +13109,7 @@
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C322" s="2" t="n">
@@ -13148,7 +13148,7 @@
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C323" s="2" t="n">
@@ -13187,7 +13187,7 @@
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C324" s="2" t="n">
@@ -13226,7 +13226,7 @@
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C325" s="2" t="n">
@@ -13265,7 +13265,7 @@
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C326" s="2" t="n">
@@ -13304,7 +13304,7 @@
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C327" s="2" t="n">
@@ -13343,7 +13343,7 @@
       </c>
       <c r="B328" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C328" s="2" t="n">
@@ -13382,7 +13382,7 @@
       </c>
       <c r="B329" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C329" s="2" t="n">
@@ -13421,7 +13421,7 @@
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C330" s="2" t="n">
@@ -13460,7 +13460,7 @@
       </c>
       <c r="B331" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C331" s="2" t="n">
@@ -13499,7 +13499,7 @@
       </c>
       <c r="B332" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C332" s="2" t="n">
@@ -13538,7 +13538,7 @@
       </c>
       <c r="B333" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C333" s="2" t="n">
@@ -13577,7 +13577,7 @@
       </c>
       <c r="B334" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C334" s="2" t="n">
@@ -13616,7 +13616,7 @@
       </c>
       <c r="B335" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C335" s="2" t="n">
@@ -13655,7 +13655,7 @@
       </c>
       <c r="B336" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C336" s="2" t="n">
@@ -13694,7 +13694,7 @@
       </c>
       <c r="B337" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C337" s="2" t="n">
@@ -13733,7 +13733,7 @@
       </c>
       <c r="B338" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C338" s="2" t="n">
@@ -13772,7 +13772,7 @@
       </c>
       <c r="B339" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C339" s="2" t="n">
@@ -13811,7 +13811,7 @@
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C340" s="2" t="n">
@@ -13850,7 +13850,7 @@
       </c>
       <c r="B341" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C341" s="2" t="n">
@@ -13889,7 +13889,7 @@
       </c>
       <c r="B342" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C342" s="2" t="n">
@@ -13928,7 +13928,7 @@
       </c>
       <c r="B343" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C343" s="2" t="n">
@@ -13967,7 +13967,7 @@
       </c>
       <c r="B344" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C344" s="2" t="n">
@@ -14006,7 +14006,7 @@
       </c>
       <c r="B345" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C345" s="2" t="n">
@@ -14045,7 +14045,7 @@
       </c>
       <c r="B346" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C346" s="2" t="n">
@@ -14084,7 +14084,7 @@
       </c>
       <c r="B347" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C347" s="2" t="n">
@@ -14123,7 +14123,7 @@
       </c>
       <c r="B348" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C348" s="2" t="n">
@@ -14162,7 +14162,7 @@
       </c>
       <c r="B349" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C349" s="2" t="n">
@@ -14201,7 +14201,7 @@
       </c>
       <c r="B350" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C350" s="2" t="n">
@@ -14240,7 +14240,7 @@
       </c>
       <c r="B351" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C351" s="2" t="n">
@@ -14279,7 +14279,7 @@
       </c>
       <c r="B352" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C352" s="2" t="n">
@@ -14318,7 +14318,7 @@
       </c>
       <c r="B353" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C353" s="2" t="n">
@@ -14357,7 +14357,7 @@
       </c>
       <c r="B354" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C354" s="2" t="n">
@@ -14396,7 +14396,7 @@
       </c>
       <c r="B355" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C355" s="2" t="n">
@@ -14435,7 +14435,7 @@
       </c>
       <c r="B356" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C356" s="2" t="n">
@@ -14474,7 +14474,7 @@
       </c>
       <c r="B357" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C357" s="2" t="n">
@@ -14513,7 +14513,7 @@
       </c>
       <c r="B358" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C358" s="2" t="n">
@@ -14552,7 +14552,7 @@
       </c>
       <c r="B359" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C359" s="2" t="n">
@@ -14591,7 +14591,7 @@
       </c>
       <c r="B360" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C360" s="2" t="n">
@@ -14630,7 +14630,7 @@
       </c>
       <c r="B361" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C361" s="2" t="n">
@@ -14669,7 +14669,7 @@
       </c>
       <c r="B362" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C362" s="2" t="n">
@@ -14708,7 +14708,7 @@
       </c>
       <c r="B363" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C363" s="2" t="n">
@@ -14747,7 +14747,7 @@
       </c>
       <c r="B364" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C364" s="2" t="n">
@@ -14786,7 +14786,7 @@
       </c>
       <c r="B365" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C365" s="2" t="n">
@@ -14825,7 +14825,7 @@
       </c>
       <c r="B366" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C366" s="2" t="n">
@@ -14864,7 +14864,7 @@
       </c>
       <c r="B367" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C367" s="2" t="n">
@@ -14903,7 +14903,7 @@
       </c>
       <c r="B368" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C368" s="2" t="n">
@@ -14942,7 +14942,7 @@
       </c>
       <c r="B369" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C369" s="2" t="n">
@@ -14981,7 +14981,7 @@
       </c>
       <c r="B370" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C370" s="2" t="n">
@@ -15020,7 +15020,7 @@
       </c>
       <c r="B371" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C371" s="2" t="n">
@@ -15059,7 +15059,7 @@
       </c>
       <c r="B372" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C372" s="2" t="n">
@@ -15098,7 +15098,7 @@
       </c>
       <c r="B373" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C373" s="2" t="n">
@@ -15137,7 +15137,7 @@
       </c>
       <c r="B374" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C374" s="2" t="n">
@@ -15176,7 +15176,7 @@
       </c>
       <c r="B375" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C375" s="2" t="n">
@@ -15215,7 +15215,7 @@
       </c>
       <c r="B376" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C376" s="2" t="n">
@@ -15254,7 +15254,7 @@
       </c>
       <c r="B377" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C377" s="2" t="n">
@@ -15293,7 +15293,7 @@
       </c>
       <c r="B378" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C378" s="2" t="n">
@@ -15332,7 +15332,7 @@
       </c>
       <c r="B379" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C379" s="2" t="n">
@@ -15371,7 +15371,7 @@
       </c>
       <c r="B380" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C380" s="2" t="n">
@@ -15410,7 +15410,7 @@
       </c>
       <c r="B381" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C381" s="2" t="n">
@@ -15449,7 +15449,7 @@
       </c>
       <c r="B382" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C382" s="2" t="n">
@@ -15488,7 +15488,7 @@
       </c>
       <c r="B383" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C383" s="2" t="n">
@@ -15527,7 +15527,7 @@
       </c>
       <c r="B384" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C384" s="2" t="n">
@@ -15566,7 +15566,7 @@
       </c>
       <c r="B385" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C385" s="2" t="n">
@@ -15605,7 +15605,7 @@
       </c>
       <c r="B386" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C386" s="2" t="n">
@@ -15644,7 +15644,7 @@
       </c>
       <c r="B387" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C387" s="2" t="n">
@@ -15683,7 +15683,7 @@
       </c>
       <c r="B388" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C388" s="2" t="n">
@@ -15722,7 +15722,7 @@
       </c>
       <c r="B389" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C389" s="2" t="n">
@@ -15761,7 +15761,7 @@
       </c>
       <c r="B390" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C390" s="2" t="n">
@@ -15800,7 +15800,7 @@
       </c>
       <c r="B391" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C391" s="2" t="n">
@@ -15839,7 +15839,7 @@
       </c>
       <c r="B392" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C392" s="2" t="n">
@@ -15878,7 +15878,7 @@
       </c>
       <c r="B393" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C393" s="2" t="n">
@@ -15917,7 +15917,7 @@
       </c>
       <c r="B394" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C394" s="2" t="n">
@@ -15956,7 +15956,7 @@
       </c>
       <c r="B395" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C395" s="2" t="n">
@@ -15995,7 +15995,7 @@
       </c>
       <c r="B396" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C396" s="2" t="n">
@@ -16034,7 +16034,7 @@
       </c>
       <c r="B397" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C397" s="2" t="n">
@@ -16073,7 +16073,7 @@
       </c>
       <c r="B398" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C398" s="2" t="n">
@@ -16112,7 +16112,7 @@
       </c>
       <c r="B399" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C399" s="2" t="n">
@@ -16151,7 +16151,7 @@
       </c>
       <c r="B400" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C400" s="2" t="n">
@@ -16190,7 +16190,7 @@
       </c>
       <c r="B401" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C401" s="2" t="n">
@@ -16229,7 +16229,7 @@
       </c>
       <c r="B402" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C402" s="2" t="n">
@@ -16268,7 +16268,7 @@
       </c>
       <c r="B403" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C403" s="2" t="n">
@@ -16307,7 +16307,7 @@
       </c>
       <c r="B404" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C404" s="2" t="n">
@@ -16346,7 +16346,7 @@
       </c>
       <c r="B405" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C405" s="2" t="n">
@@ -16385,7 +16385,7 @@
       </c>
       <c r="B406" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C406" s="2" t="n">
@@ -16424,7 +16424,7 @@
       </c>
       <c r="B407" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C407" s="2" t="n">
@@ -16463,7 +16463,7 @@
       </c>
       <c r="B408" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C408" s="2" t="n">
@@ -16502,7 +16502,7 @@
       </c>
       <c r="B409" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C409" s="2" t="n">
@@ -16541,7 +16541,7 @@
       </c>
       <c r="B410" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C410" s="2" t="n">
@@ -16580,7 +16580,7 @@
       </c>
       <c r="B411" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C411" s="2" t="n">
@@ -16619,7 +16619,7 @@
       </c>
       <c r="B412" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C412" s="2" t="n">
@@ -16658,7 +16658,7 @@
       </c>
       <c r="B413" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C413" s="2" t="n">
@@ -16697,7 +16697,7 @@
       </c>
       <c r="B414" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C414" s="2" t="n">
@@ -16736,7 +16736,7 @@
       </c>
       <c r="B415" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C415" s="2" t="n">
@@ -16775,7 +16775,7 @@
       </c>
       <c r="B416" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C416" s="2" t="n">
@@ -16814,7 +16814,7 @@
       </c>
       <c r="B417" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C417" s="2" t="n">
@@ -16853,7 +16853,7 @@
       </c>
       <c r="B418" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C418" s="2" t="n">
@@ -16892,7 +16892,7 @@
       </c>
       <c r="B419" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C419" s="2" t="n">
@@ -16931,7 +16931,7 @@
       </c>
       <c r="B420" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C420" s="2" t="n">
@@ -16970,7 +16970,7 @@
       </c>
       <c r="B421" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C421" s="2" t="n">
@@ -17009,7 +17009,7 @@
       </c>
       <c r="B422" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C422" s="2" t="n">
@@ -17048,7 +17048,7 @@
       </c>
       <c r="B423" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C423" s="2" t="n">
@@ -17087,7 +17087,7 @@
       </c>
       <c r="B424" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C424" s="2" t="n">
@@ -17126,7 +17126,7 @@
       </c>
       <c r="B425" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C425" s="2" t="n">
@@ -17165,7 +17165,7 @@
       </c>
       <c r="B426" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C426" s="2" t="n">
@@ -17204,7 +17204,7 @@
       </c>
       <c r="B427" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C427" s="2" t="n">
@@ -17243,7 +17243,7 @@
       </c>
       <c r="B428" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C428" s="2" t="n">
@@ -17282,7 +17282,7 @@
       </c>
       <c r="B429" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C429" s="2" t="n">
@@ -17321,7 +17321,7 @@
       </c>
       <c r="B430" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C430" s="2" t="n">
@@ -17360,7 +17360,7 @@
       </c>
       <c r="B431" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C431" s="2" t="n">
@@ -17399,7 +17399,7 @@
       </c>
       <c r="B432" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C432" s="2" t="n">
@@ -17438,7 +17438,7 @@
       </c>
       <c r="B433" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C433" s="2" t="n">
@@ -17477,7 +17477,7 @@
       </c>
       <c r="B434" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C434" s="2" t="n">
@@ -17516,7 +17516,7 @@
       </c>
       <c r="B435" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C435" s="2" t="n">
@@ -17555,7 +17555,7 @@
       </c>
       <c r="B436" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C436" s="2" t="n">
@@ -17594,7 +17594,7 @@
       </c>
       <c r="B437" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C437" s="2" t="n">
@@ -17633,7 +17633,7 @@
       </c>
       <c r="B438" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C438" s="2" t="n">
@@ -17672,7 +17672,7 @@
       </c>
       <c r="B439" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C439" s="2" t="n">
@@ -17711,7 +17711,7 @@
       </c>
       <c r="B440" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C440" s="2" t="n">
@@ -17750,7 +17750,7 @@
       </c>
       <c r="B441" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C441" s="2" t="n">
@@ -17789,7 +17789,7 @@
       </c>
       <c r="B442" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C442" s="2" t="n">
@@ -17828,7 +17828,7 @@
       </c>
       <c r="B443" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C443" s="2" t="n">
@@ -17867,7 +17867,7 @@
       </c>
       <c r="B444" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C444" s="2" t="n">
@@ -17906,7 +17906,7 @@
       </c>
       <c r="B445" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C445" s="2" t="n">
@@ -17945,7 +17945,7 @@
       </c>
       <c r="B446" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C446" s="2" t="n">
@@ -17984,7 +17984,7 @@
       </c>
       <c r="B447" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C447" s="2" t="n">
@@ -18023,7 +18023,7 @@
       </c>
       <c r="B448" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C448" s="2" t="n">
@@ -18062,7 +18062,7 @@
       </c>
       <c r="B449" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C449" s="2" t="n">
@@ -18101,7 +18101,7 @@
       </c>
       <c r="B450" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C450" s="2" t="n">
@@ -18140,7 +18140,7 @@
       </c>
       <c r="B451" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C451" s="2" t="n">
@@ -18179,7 +18179,7 @@
       </c>
       <c r="B452" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C452" s="2" t="n">
@@ -18218,7 +18218,7 @@
       </c>
       <c r="B453" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C453" s="2" t="n">
@@ -18257,7 +18257,7 @@
       </c>
       <c r="B454" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C454" s="2" t="n">
@@ -18296,7 +18296,7 @@
       </c>
       <c r="B455" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C455" s="2" t="n">
@@ -18335,7 +18335,7 @@
       </c>
       <c r="B456" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C456" s="2" t="n">
@@ -18374,7 +18374,7 @@
       </c>
       <c r="B457" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C457" s="2" t="n">
@@ -18413,7 +18413,7 @@
       </c>
       <c r="B458" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C458" s="2" t="n">
@@ -18452,7 +18452,7 @@
       </c>
       <c r="B459" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C459" s="2" t="n">
@@ -18491,7 +18491,7 @@
       </c>
       <c r="B460" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C460" s="2" t="n">
@@ -18530,7 +18530,7 @@
       </c>
       <c r="B461" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C461" s="2" t="n">
@@ -18569,7 +18569,7 @@
       </c>
       <c r="B462" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C462" s="2" t="n">
@@ -18608,7 +18608,7 @@
       </c>
       <c r="B463" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C463" s="2" t="n">
@@ -18647,7 +18647,7 @@
       </c>
       <c r="B464" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C464" s="2" t="n">
